--- a/mahjong/application/src/test/resources/testdata/room/out/rooms-1.xlsx
+++ b/mahjong/application/src/test/resources/testdata/room/out/rooms-1.xlsx
@@ -36,15 +36,15 @@
     <t>0</t>
   </si>
   <si>
-    <t>test-id</t>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test-id</t>
+    <t>default</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
+    <t>default</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -402,16 +402,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
